--- a/src/test/java/excel/parse/excel/simpleExport.xlsx
+++ b/src/test/java/excel/parse/excel/simpleExport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\damon.li\Documents\code\self\poi-excel\src\test\java\excel\parse\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631BC0B4-BB87-4F11-AF6C-621A090FAF40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F4ED01-DC56-4722-BCF3-87AB3195AE6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="29">
   <si>
     <t>项目名称</t>
   </si>
@@ -104,6 +104,10 @@
   </si>
   <si>
     <t>dd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">  2022/6/5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -111,9 +115,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -184,7 +185,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -951,7 +952,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
+      <selection pane="bottomLeft" activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1028,7 +1029,7 @@
         <v>0.29037825845119491</v>
       </c>
       <c r="J2" s="2">
-        <v>44714.559483726851</v>
+        <v>44715</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -1060,7 +1061,7 @@
         <v>0.17440665960989077</v>
       </c>
       <c r="J3" s="2">
-        <v>44714.559483738427</v>
+        <v>44715</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -1089,7 +1090,7 @@
         <v>0.14792406044181017</v>
       </c>
       <c r="J4" s="2">
-        <v>44714.559483750003</v>
+        <v>44716</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -1120,8 +1121,8 @@
       <c r="I5">
         <v>0.72963238178652623</v>
       </c>
-      <c r="J5" s="2">
-        <v>44714.559483761572</v>
+      <c r="J5" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1150,7 +1151,7 @@
         <v>4.3738743056032314E-2</v>
       </c>
       <c r="J6" s="2">
-        <v>44714.559483784724</v>
+        <v>44718</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1182,7 +1183,7 @@
         <v>0.51678417556396361</v>
       </c>
       <c r="J7" s="2">
-        <v>44714.5594837963</v>
+        <v>44719</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -1211,7 +1212,7 @@
         <v>6.6592950346200386E-2</v>
       </c>
       <c r="J8" s="2">
-        <v>44714.559483807869</v>
+        <v>44720</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -1243,7 +1244,7 @@
         <v>0.28711709433505772</v>
       </c>
       <c r="J9" s="2">
-        <v>44714.559483807869</v>
+        <v>44721</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1275,7 +1276,7 @@
         <v>0.18596390668583695</v>
       </c>
       <c r="J10" s="2">
-        <v>44714.559483819445</v>
+        <v>44722</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
@@ -1307,7 +1308,7 @@
         <v>0.20507349240186645</v>
       </c>
       <c r="J11" s="2">
-        <v>44714.559483831021</v>
+        <v>44723</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/excel/parse/excel/simpleExport.xlsx
+++ b/src/test/java/excel/parse/excel/simpleExport.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\damon.li\Documents\code\self\poi-excel\src\test\java\excel\parse\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F4ED01-DC56-4722-BCF3-87AB3195AE6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4FD395E-405E-4D6E-9A19-31BB810796CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="29">
   <si>
     <t>项目名称</t>
   </si>
@@ -103,11 +104,11 @@
     <t>中青旅9</t>
   </si>
   <si>
-    <t>dd</t>
+    <t xml:space="preserve">  2022/6/5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  2022/6/5</t>
+    <t>合计行</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -178,7 +179,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -186,12 +187,83 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -635,8 +707,57 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="600075" cy="190500"/>
+          <a:off x="914400" y="1809750"/>
+          <a:ext cx="685800" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFD4B39C-3C8B-4EF9-8358-3282D5BE7FC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="914400" y="180975"/>
+          <a:ext cx="685800" cy="180975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -656,7 +777,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CCE8CF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -948,11 +1069,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L10" sqref="L10"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="A1:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1083,8 +1204,8 @@
       <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="H4" t="s">
-        <v>27</v>
+      <c r="H4">
+        <v>32</v>
       </c>
       <c r="I4">
         <v>0.14792406044181017</v>
@@ -1122,7 +1243,7 @@
         <v>0.72963238178652623</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1311,11 +1432,131 @@
         <v>44723</v>
       </c>
     </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="3">
+        <v>123</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B12:J12"/>
+  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2947732-6476-4C23-ADF2-45D5D317A47C}">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2">
+        <v>520</v>
+      </c>
+      <c r="I2">
+        <v>0.29037825845119491</v>
+      </c>
+      <c r="J2" s="2">
+        <v>44715</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="3">
+        <v>123</v>
+      </c>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:J3"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/src/test/java/excel/parse/excel/simpleExport.xlsx
+++ b/src/test/java/excel/parse/excel/simpleExport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\damon.li\Documents\code\self\poi-excel\src\test\java\excel\parse\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\35361\Documents\code\self\poi-excel\src\test\java\excel\parse\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4FD395E-405E-4D6E-9A19-31BB810796CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8130ECC4-246F-4619-8BA4-9FB03F96C9C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -104,11 +104,11 @@
     <t>中青旅9</t>
   </si>
   <si>
-    <t xml:space="preserve">  2022/6/5</t>
+    <t>合计行</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>合计行</t>
+    <t xml:space="preserve">  2022/6/53的</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -196,74 +196,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -777,7 +709,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1071,9 +1003,9 @@
   </sheetPr>
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="A1:J12"/>
+      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1082,7 +1014,7 @@
     <col min="2" max="2" width="9" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="6" customWidth="1"/>
-    <col min="5" max="5" width="3" customWidth="1"/>
+    <col min="5" max="5" width="5.625" customWidth="1"/>
     <col min="6" max="7" width="15" customWidth="1"/>
     <col min="8" max="8" width="6" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
@@ -1243,7 +1175,7 @@
         <v>0.72963238178652623</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1434,7 +1366,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B12" s="3">
         <v>123</v>
@@ -1464,7 +1396,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2947732-6476-4C23-ADF2-45D5D317A47C}">
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -1536,7 +1468,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="3">
         <v>123</v>

--- a/src/test/java/excel/parse/excel/simpleExport.xlsx
+++ b/src/test/java/excel/parse/excel/simpleExport.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\35361\Documents\code\self\poi-excel\src\test\java\excel\parse\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8130ECC4-246F-4619-8BA4-9FB03F96C9C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7C300F-5081-4C86-8CE6-9463DAF355F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,18 @@
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -116,6 +127,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="0_ "/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -179,7 +193,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -189,6 +203,9 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1005,7 +1022,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1016,7 +1033,7 @@
     <col min="4" max="4" width="6" customWidth="1"/>
     <col min="5" max="5" width="5.625" customWidth="1"/>
     <col min="6" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="6" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
     <col min="10" max="10" width="24.375" customWidth="1"/>
   </cols>
@@ -1075,11 +1092,12 @@
       <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="H2">
-        <v>520</v>
-      </c>
-      <c r="I2">
-        <v>0.29037825845119491</v>
+      <c r="H2" s="4">
+        <v>32</v>
+      </c>
+      <c r="I2" s="4">
+        <f>H2+H3</f>
+        <v>64</v>
       </c>
       <c r="J2" s="2">
         <v>44715</v>
@@ -1108,7 +1126,7 @@
         <v>16</v>
       </c>
       <c r="H3">
-        <v>687</v>
+        <v>32</v>
       </c>
       <c r="I3">
         <v>0.17440665960989077</v>
@@ -1355,7 +1373,7 @@
         <v>16</v>
       </c>
       <c r="H11">
-        <v>123</v>
+        <v>2132</v>
       </c>
       <c r="I11">
         <v>0.20507349240186645</v>

--- a/src/test/java/excel/parse/excel/simpleExport.xlsx
+++ b/src/test/java/excel/parse/excel/simpleExport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\35361\Documents\code\self\poi-excel\src\test\java\excel\parse\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A7C300F-5081-4C86-8CE6-9463DAF355F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6253C2-8DDD-4CC6-B943-AE178AF8C808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="30">
   <si>
     <t>项目名称</t>
   </si>
@@ -120,6 +120,10 @@
   </si>
   <si>
     <t xml:space="preserve">  2022/6/53的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> =华东长三角</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -128,7 +132,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -201,11 +205,11 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1022,7 +1026,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1078,7 +1082,7 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -1092,10 +1096,10 @@
       <c r="G2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="3">
         <v>32</v>
       </c>
-      <c r="I2" s="4">
+      <c r="I2" s="3">
         <f>H2+H3</f>
         <v>64</v>
       </c>
@@ -1111,7 +1115,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -1386,17 +1390,17 @@
       <c r="A12" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="4">
         <v>123</v>
       </c>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1488,17 +1492,17 @@
       <c r="A3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="4">
         <v>123</v>
       </c>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/src/test/java/excel/parse/excel/simpleExport.xlsx
+++ b/src/test/java/excel/parse/excel/simpleExport.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\35361\Documents\code\self\poi-excel\src\test\java\excel\parse\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A6253C2-8DDD-4CC6-B943-AE178AF8C808}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02E6881-198D-48EB-8081-0E266BFCBA7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -197,7 +197,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -206,6 +206,9 @@
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1026,7 +1029,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1038,7 +1041,7 @@
     <col min="5" max="5" width="5.625" customWidth="1"/>
     <col min="6" max="7" width="15" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="9" max="9" width="55.5" customWidth="1"/>
     <col min="10" max="10" width="24.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1099,9 +1102,8 @@
       <c r="H2" s="3">
         <v>32</v>
       </c>
-      <c r="I2" s="3">
-        <f>H2+H3</f>
-        <v>64</v>
+      <c r="I2" s="4">
+        <v>2.3222222222222399E+23</v>
       </c>
       <c r="J2" s="2">
         <v>44715</v>
@@ -1132,8 +1134,8 @@
       <c r="H3">
         <v>32</v>
       </c>
-      <c r="I3">
-        <v>0.17440665960989077</v>
+      <c r="I3" s="4">
+        <v>2.3222222222222399E+23</v>
       </c>
       <c r="J3" s="2">
         <v>44715</v>
@@ -1161,8 +1163,8 @@
       <c r="H4">
         <v>32</v>
       </c>
-      <c r="I4">
-        <v>0.14792406044181017</v>
+      <c r="I4" s="4">
+        <v>2.3222222222222399E+23</v>
       </c>
       <c r="J4" s="2">
         <v>44716</v>
@@ -1193,8 +1195,8 @@
       <c r="H5">
         <v>89</v>
       </c>
-      <c r="I5">
-        <v>0.72963238178652623</v>
+      <c r="I5" s="4">
+        <v>2.3222222222222399E+23</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>28</v>
@@ -1222,8 +1224,8 @@
       <c r="G6" t="s">
         <v>16</v>
       </c>
-      <c r="I6">
-        <v>4.3738743056032314E-2</v>
+      <c r="I6" s="4">
+        <v>999999999999999</v>
       </c>
       <c r="J6" s="2">
         <v>44718</v>
@@ -1254,8 +1256,8 @@
       <c r="H7">
         <v>863</v>
       </c>
-      <c r="I7">
-        <v>0.51678417556396361</v>
+      <c r="I7" s="4">
+        <v>999999999999998</v>
       </c>
       <c r="J7" s="2">
         <v>44719</v>
@@ -1283,8 +1285,8 @@
       <c r="H8">
         <v>199</v>
       </c>
-      <c r="I8">
-        <v>6.6592950346200386E-2</v>
+      <c r="I8" s="4">
+        <v>99999999999999.797</v>
       </c>
       <c r="J8" s="2">
         <v>44720</v>
@@ -1315,8 +1317,8 @@
       <c r="H9">
         <v>123</v>
       </c>
-      <c r="I9">
-        <v>0.28711709433505772</v>
+      <c r="I9" s="4">
+        <v>9.9999999999999903E+29</v>
       </c>
       <c r="J9" s="2">
         <v>44721</v>
@@ -1348,7 +1350,7 @@
         <v>330</v>
       </c>
       <c r="I10">
-        <v>0.18596390668583695</v>
+        <v>23222222222222.301</v>
       </c>
       <c r="J10" s="2">
         <v>44722</v>
@@ -1380,7 +1382,7 @@
         <v>2132</v>
       </c>
       <c r="I11">
-        <v>0.20507349240186645</v>
+        <v>23222222222222.301</v>
       </c>
       <c r="J11" s="2">
         <v>44723</v>
@@ -1390,17 +1392,17 @@
       <c r="A12" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="5">
         <v>123</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1492,17 +1494,17 @@
       <c r="A3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="5">
         <v>123</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/src/test/java/excel/parse/excel/simpleExport.xlsx
+++ b/src/test/java/excel/parse/excel/simpleExport.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\35361\Documents\code\self\poi-excel\src\test\java\excel\parse\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02E6881-198D-48EB-8081-0E266BFCBA7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B4FDA2-BA8E-4358-8CA3-14125494CB99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -131,8 +131,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -197,7 +198,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -209,6 +210,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1029,7 +1033,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
+      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1100,11 +1104,9 @@
         <v>16</v>
       </c>
       <c r="H2" s="3">
-        <v>32</v>
-      </c>
-      <c r="I2" s="4">
-        <v>2.3222222222222399E+23</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I2" s="4"/>
       <c r="J2" s="2">
         <v>44715</v>
       </c>
@@ -1132,7 +1134,7 @@
         <v>16</v>
       </c>
       <c r="H3">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="I3" s="4">
         <v>2.3222222222222399E+23</v>
@@ -1160,8 +1162,8 @@
       <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="H4">
-        <v>32</v>
+      <c r="H4" s="5">
+        <v>3</v>
       </c>
       <c r="I4" s="4">
         <v>2.3222222222222399E+23</v>
@@ -1193,7 +1195,7 @@
         <v>16</v>
       </c>
       <c r="H5">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="I5" s="4">
         <v>2.3222222222222399E+23</v>
@@ -1224,6 +1226,9 @@
       <c r="G6" t="s">
         <v>16</v>
       </c>
+      <c r="H6">
+        <v>5</v>
+      </c>
       <c r="I6" s="4">
         <v>999999999999999</v>
       </c>
@@ -1254,7 +1259,7 @@
         <v>16</v>
       </c>
       <c r="H7">
-        <v>863</v>
+        <v>6</v>
       </c>
       <c r="I7" s="4">
         <v>999999999999998</v>
@@ -1283,7 +1288,7 @@
         <v>15</v>
       </c>
       <c r="H8">
-        <v>199</v>
+        <v>7</v>
       </c>
       <c r="I8" s="4">
         <v>99999999999999.797</v>
@@ -1315,7 +1320,7 @@
         <v>16</v>
       </c>
       <c r="H9">
-        <v>123</v>
+        <v>8</v>
       </c>
       <c r="I9" s="4">
         <v>9.9999999999999903E+29</v>
@@ -1347,7 +1352,7 @@
         <v>16</v>
       </c>
       <c r="H10">
-        <v>330</v>
+        <v>9</v>
       </c>
       <c r="I10">
         <v>23222222222222.301</v>
@@ -1379,7 +1384,7 @@
         <v>16</v>
       </c>
       <c r="H11">
-        <v>2132</v>
+        <v>10</v>
       </c>
       <c r="I11">
         <v>23222222222222.301</v>
@@ -1392,17 +1397,15 @@
       <c r="A12" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="5">
-        <v>123</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1494,17 +1497,17 @@
       <c r="A3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="6">
         <v>123</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/src/test/java/excel/parse/excel/simpleExport.xlsx
+++ b/src/test/java/excel/parse/excel/simpleExport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\35361\Documents\code\self\poi-excel\src\test\java\excel\parse\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B4FDA2-BA8E-4358-8CA3-14125494CB99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A07F5C2-0FF7-49DF-926E-9DC70EF5060F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -131,9 +131,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -198,7 +197,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -210,9 +209,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1033,7 +1029,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1104,7 +1100,7 @@
         <v>16</v>
       </c>
       <c r="H2" s="3">
-        <v>1</v>
+        <v>1.1123209999999999</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="2">
@@ -1133,8 +1129,8 @@
       <c r="G3" t="s">
         <v>16</v>
       </c>
-      <c r="H3">
-        <v>2</v>
+      <c r="H3" s="3">
+        <v>1.1123209999999999</v>
       </c>
       <c r="I3" s="4">
         <v>2.3222222222222399E+23</v>
@@ -1162,8 +1158,8 @@
       <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="5">
-        <v>3</v>
+      <c r="H4" s="3">
+        <v>1.1123209999999999</v>
       </c>
       <c r="I4" s="4">
         <v>2.3222222222222399E+23</v>
@@ -1194,8 +1190,8 @@
       <c r="G5" t="s">
         <v>16</v>
       </c>
-      <c r="H5">
-        <v>4</v>
+      <c r="H5" s="3">
+        <v>1.1123209999999999</v>
       </c>
       <c r="I5" s="4">
         <v>2.3222222222222399E+23</v>
@@ -1226,8 +1222,8 @@
       <c r="G6" t="s">
         <v>16</v>
       </c>
-      <c r="H6">
-        <v>5</v>
+      <c r="H6" s="3">
+        <v>1.1123209999999999</v>
       </c>
       <c r="I6" s="4">
         <v>999999999999999</v>
@@ -1258,8 +1254,8 @@
       <c r="G7" t="s">
         <v>16</v>
       </c>
-      <c r="H7">
-        <v>6</v>
+      <c r="H7" s="3">
+        <v>1.1123209999999999</v>
       </c>
       <c r="I7" s="4">
         <v>999999999999998</v>
@@ -1287,8 +1283,8 @@
       <c r="F8" t="s">
         <v>15</v>
       </c>
-      <c r="H8">
-        <v>7</v>
+      <c r="H8" s="3">
+        <v>1.1123209999999999</v>
       </c>
       <c r="I8" s="4">
         <v>99999999999999.797</v>
@@ -1319,8 +1315,8 @@
       <c r="G9" t="s">
         <v>16</v>
       </c>
-      <c r="H9">
-        <v>8</v>
+      <c r="H9" s="3">
+        <v>1.1123209999999999</v>
       </c>
       <c r="I9" s="4">
         <v>9.9999999999999903E+29</v>
@@ -1351,8 +1347,8 @@
       <c r="G10" t="s">
         <v>16</v>
       </c>
-      <c r="H10">
-        <v>9</v>
+      <c r="H10" s="3">
+        <v>1.1123209999999999</v>
       </c>
       <c r="I10">
         <v>23222222222222.301</v>
@@ -1383,8 +1379,8 @@
       <c r="G11" t="s">
         <v>16</v>
       </c>
-      <c r="H11">
-        <v>10</v>
+      <c r="H11" s="3">
+        <v>1.1123209999999999</v>
       </c>
       <c r="I11">
         <v>23222222222222.301</v>
@@ -1397,15 +1393,15 @@
       <c r="A12" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1497,17 +1493,17 @@
       <c r="A3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>123</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/src/test/java/excel/parse/excel/simpleExport.xlsx
+++ b/src/test/java/excel/parse/excel/simpleExport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\35361\Documents\code\self\poi-excel\src\test\java\excel\parse\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A07F5C2-0FF7-49DF-926E-9DC70EF5060F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDA55F9-F73E-48FE-87A9-7EC21506F49C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -119,11 +119,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">  2022/6/53的</t>
+    <t xml:space="preserve"> =华东长三角</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> =华东长三角</t>
+    <t>2022/6/30的</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1029,21 +1029,10 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12:J12"/>
+      <selection pane="bottomLeft" activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="6" customWidth="1"/>
-    <col min="5" max="5" width="5.625" customWidth="1"/>
-    <col min="6" max="7" width="15" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="55.5" customWidth="1"/>
-    <col min="10" max="10" width="24.375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="11.375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -1115,7 +1104,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -1197,7 +1186,7 @@
         <v>2.3222222222222399E+23</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">

--- a/src/test/java/excel/parse/excel/simpleExport.xlsx
+++ b/src/test/java/excel/parse/excel/simpleExport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\35361\Documents\code\self\poi-excel\src\test\java\excel\parse\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDA55F9-F73E-48FE-87A9-7EC21506F49C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A07F5C2-0FF7-49DF-926E-9DC70EF5060F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -119,11 +119,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">  2022/6/53的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve"> =华东长三角</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022/6/30的</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1029,10 +1029,21 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L5" sqref="L5"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12:J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="6" customWidth="1"/>
+    <col min="5" max="5" width="5.625" customWidth="1"/>
+    <col min="6" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="55.5" customWidth="1"/>
+    <col min="10" max="10" width="24.375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
@@ -1104,7 +1115,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -1186,7 +1197,7 @@
         <v>2.3222222222222399E+23</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">

--- a/src/test/java/excel/parse/excel/simpleExport.xlsx
+++ b/src/test/java/excel/parse/excel/simpleExport.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\35361\Documents\code\self\poi-excel\src\test\java\excel\parse\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A07F5C2-0FF7-49DF-926E-9DC70EF5060F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B4FDA2-BA8E-4358-8CA3-14125494CB99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -131,8 +131,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -197,7 +198,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -209,6 +210,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1029,7 +1033,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12:J12"/>
+      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1100,7 +1104,7 @@
         <v>16</v>
       </c>
       <c r="H2" s="3">
-        <v>1.1123209999999999</v>
+        <v>1</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="2">
@@ -1129,8 +1133,8 @@
       <c r="G3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="3">
-        <v>1.1123209999999999</v>
+      <c r="H3">
+        <v>2</v>
       </c>
       <c r="I3" s="4">
         <v>2.3222222222222399E+23</v>
@@ -1158,8 +1162,8 @@
       <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="3">
-        <v>1.1123209999999999</v>
+      <c r="H4" s="5">
+        <v>3</v>
       </c>
       <c r="I4" s="4">
         <v>2.3222222222222399E+23</v>
@@ -1190,8 +1194,8 @@
       <c r="G5" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="3">
-        <v>1.1123209999999999</v>
+      <c r="H5">
+        <v>4</v>
       </c>
       <c r="I5" s="4">
         <v>2.3222222222222399E+23</v>
@@ -1222,8 +1226,8 @@
       <c r="G6" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="3">
-        <v>1.1123209999999999</v>
+      <c r="H6">
+        <v>5</v>
       </c>
       <c r="I6" s="4">
         <v>999999999999999</v>
@@ -1254,8 +1258,8 @@
       <c r="G7" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="3">
-        <v>1.1123209999999999</v>
+      <c r="H7">
+        <v>6</v>
       </c>
       <c r="I7" s="4">
         <v>999999999999998</v>
@@ -1283,8 +1287,8 @@
       <c r="F8" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="3">
-        <v>1.1123209999999999</v>
+      <c r="H8">
+        <v>7</v>
       </c>
       <c r="I8" s="4">
         <v>99999999999999.797</v>
@@ -1315,8 +1319,8 @@
       <c r="G9" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="3">
-        <v>1.1123209999999999</v>
+      <c r="H9">
+        <v>8</v>
       </c>
       <c r="I9" s="4">
         <v>9.9999999999999903E+29</v>
@@ -1347,8 +1351,8 @@
       <c r="G10" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="3">
-        <v>1.1123209999999999</v>
+      <c r="H10">
+        <v>9</v>
       </c>
       <c r="I10">
         <v>23222222222222.301</v>
@@ -1379,8 +1383,8 @@
       <c r="G11" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="3">
-        <v>1.1123209999999999</v>
+      <c r="H11">
+        <v>10</v>
       </c>
       <c r="I11">
         <v>23222222222222.301</v>
@@ -1393,15 +1397,15 @@
       <c r="A12" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1493,17 +1497,17 @@
       <c r="A3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="6">
         <v>123</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/src/test/java/excel/parse/excel/simpleExport.xlsx
+++ b/src/test/java/excel/parse/excel/simpleExport.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\35361\Documents\code\self\poi-excel\src\test\java\excel\parse\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11B4FDA2-BA8E-4358-8CA3-14125494CB99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02E6881-198D-48EB-8081-0E266BFCBA7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -131,9 +131,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -198,7 +197,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -210,9 +209,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1033,7 +1029,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I14" sqref="I14"/>
+      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1104,9 +1100,11 @@
         <v>16</v>
       </c>
       <c r="H2" s="3">
-        <v>1</v>
-      </c>
-      <c r="I2" s="4"/>
+        <v>32</v>
+      </c>
+      <c r="I2" s="4">
+        <v>2.3222222222222399E+23</v>
+      </c>
       <c r="J2" s="2">
         <v>44715</v>
       </c>
@@ -1134,7 +1132,7 @@
         <v>16</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="I3" s="4">
         <v>2.3222222222222399E+23</v>
@@ -1162,8 +1160,8 @@
       <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="5">
-        <v>3</v>
+      <c r="H4">
+        <v>32</v>
       </c>
       <c r="I4" s="4">
         <v>2.3222222222222399E+23</v>
@@ -1195,7 +1193,7 @@
         <v>16</v>
       </c>
       <c r="H5">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="I5" s="4">
         <v>2.3222222222222399E+23</v>
@@ -1226,9 +1224,6 @@
       <c r="G6" t="s">
         <v>16</v>
       </c>
-      <c r="H6">
-        <v>5</v>
-      </c>
       <c r="I6" s="4">
         <v>999999999999999</v>
       </c>
@@ -1259,7 +1254,7 @@
         <v>16</v>
       </c>
       <c r="H7">
-        <v>6</v>
+        <v>863</v>
       </c>
       <c r="I7" s="4">
         <v>999999999999998</v>
@@ -1288,7 +1283,7 @@
         <v>15</v>
       </c>
       <c r="H8">
-        <v>7</v>
+        <v>199</v>
       </c>
       <c r="I8" s="4">
         <v>99999999999999.797</v>
@@ -1320,7 +1315,7 @@
         <v>16</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>123</v>
       </c>
       <c r="I9" s="4">
         <v>9.9999999999999903E+29</v>
@@ -1352,7 +1347,7 @@
         <v>16</v>
       </c>
       <c r="H10">
-        <v>9</v>
+        <v>330</v>
       </c>
       <c r="I10">
         <v>23222222222222.301</v>
@@ -1384,7 +1379,7 @@
         <v>16</v>
       </c>
       <c r="H11">
-        <v>10</v>
+        <v>2132</v>
       </c>
       <c r="I11">
         <v>23222222222222.301</v>
@@ -1397,15 +1392,17 @@
       <c r="A12" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
+      <c r="B12" s="5">
+        <v>123</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1497,17 +1494,17 @@
       <c r="A3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>123</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/src/test/java/excel/parse/excel/simpleExport.xlsx
+++ b/src/test/java/excel/parse/excel/simpleExport.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\35361\Documents\code\self\poi-excel\src\test\java\excel\parse\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\self\poi-excel\src\test\java\excel\parse\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EDA55F9-F73E-48FE-87A9-7EC21506F49C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B9113E-F515-4A72-B5BC-E9D6B869E666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="23040" windowHeight="12120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -119,11 +119,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t xml:space="preserve">  2022/6/53的</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve"> =华东长三角</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2022/6/30的</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -197,7 +197,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -206,9 +206,6 @@
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -233,7 +230,7 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
@@ -241,17 +238,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2575560</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1448753</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="Picture">
+        <xdr:cNvPr id="13" name="图片 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B94A43D-8758-82EB-8B22-B7ABE6F1E3AB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -260,7 +257,82 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:duotone>
+            <a:schemeClr val="accent5">
+              <a:shade val="45000"/>
+              <a:satMod val="135000"/>
+            </a:schemeClr>
+            <a:prstClr val="white"/>
+          </a:duotone>
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId2">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="10000" b="90000" l="10000" r="90000"/>
+                  </a14:imgEffect>
+                  <a14:imgEffect>
+                    <a14:artisticGlowEdges/>
+                  </a14:imgEffect>
+                  <a14:imgEffect>
+                    <a14:colorTemperature colorTemp="4700"/>
+                  </a14:imgEffect>
+                  <a14:imgEffect>
+                    <a14:saturation sat="0"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="822960" y="175260"/>
+          <a:ext cx="2575560" cy="1448753"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 1" descr="Picture">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -281,21 +353,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 1" descr="Picture">
+        <xdr:cNvPr id="4" name="Picture 1" descr="Picture">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -304,7 +376,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -325,21 +397,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 1" descr="Picture">
+        <xdr:cNvPr id="5" name="Picture 1" descr="Picture">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -348,7 +420,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -369,21 +441,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 1" descr="Picture">
+        <xdr:cNvPr id="6" name="Picture 1" descr="Picture">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -392,7 +464,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -413,21 +485,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 1" descr="Picture">
+        <xdr:cNvPr id="7" name="Picture 1" descr="Picture">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -436,7 +508,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -457,21 +529,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 1" descr="Picture">
+        <xdr:cNvPr id="8" name="Picture 1" descr="Picture">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -480,7 +552,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -501,21 +573,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 1" descr="Picture">
+        <xdr:cNvPr id="9" name="Picture 1" descr="Picture">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -524,7 +596,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -545,21 +617,21 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 1" descr="Picture">
+        <xdr:cNvPr id="10" name="Picture 1" descr="Picture">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -568,7 +640,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -589,50 +661,6 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 1" descr="Picture">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="600075" cy="190500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -656,7 +684,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -1029,12 +1057,23 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L5" sqref="L5"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" customWidth="1"/>
+    <col min="2" max="2" width="45" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="6" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" customWidth="1"/>
+    <col min="6" max="7" width="15" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="10" max="10" width="24.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1066,7 +1105,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" ht="118.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1089,14 +1128,17 @@
         <v>16</v>
       </c>
       <c r="H2" s="3">
-        <v>1.1123209999999999</v>
-      </c>
-      <c r="I2" s="4"/>
+        <v>32</v>
+      </c>
+      <c r="I2" s="3">
+        <f>H2+H3</f>
+        <v>64</v>
+      </c>
       <c r="J2" s="2">
         <v>44715</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1104,7 +1146,7 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -1118,17 +1160,17 @@
       <c r="G3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="3">
-        <v>1.1123209999999999</v>
-      </c>
-      <c r="I3" s="4">
-        <v>2.3222222222222399E+23</v>
+      <c r="H3">
+        <v>32</v>
+      </c>
+      <c r="I3">
+        <v>0.17440665960989077</v>
       </c>
       <c r="J3" s="2">
         <v>44715</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1147,17 +1189,17 @@
       <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="H4" s="3">
-        <v>1.1123209999999999</v>
-      </c>
-      <c r="I4" s="4">
-        <v>2.3222222222222399E+23</v>
+      <c r="H4">
+        <v>32</v>
+      </c>
+      <c r="I4">
+        <v>0.14792406044181017</v>
       </c>
       <c r="J4" s="2">
         <v>44716</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1179,17 +1221,17 @@
       <c r="G5" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="3">
-        <v>1.1123209999999999</v>
-      </c>
-      <c r="I5" s="4">
-        <v>2.3222222222222399E+23</v>
+      <c r="H5">
+        <v>89</v>
+      </c>
+      <c r="I5">
+        <v>0.72963238178652623</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -1211,17 +1253,14 @@
       <c r="G6" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="3">
-        <v>1.1123209999999999</v>
-      </c>
-      <c r="I6" s="4">
-        <v>999999999999999</v>
+      <c r="I6">
+        <v>4.3738743056032314E-2</v>
       </c>
       <c r="J6" s="2">
         <v>44718</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>22</v>
       </c>
@@ -1243,17 +1282,17 @@
       <c r="G7" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="3">
-        <v>1.1123209999999999</v>
-      </c>
-      <c r="I7" s="4">
-        <v>999999999999998</v>
+      <c r="H7">
+        <v>863</v>
+      </c>
+      <c r="I7">
+        <v>0.51678417556396361</v>
       </c>
       <c r="J7" s="2">
         <v>44719</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -1272,17 +1311,17 @@
       <c r="F8" t="s">
         <v>15</v>
       </c>
-      <c r="H8" s="3">
-        <v>1.1123209999999999</v>
-      </c>
-      <c r="I8" s="4">
-        <v>99999999999999.797</v>
+      <c r="H8">
+        <v>199</v>
+      </c>
+      <c r="I8">
+        <v>6.6592950346200386E-2</v>
       </c>
       <c r="J8" s="2">
         <v>44720</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
@@ -1304,17 +1343,17 @@
       <c r="G9" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="3">
-        <v>1.1123209999999999</v>
-      </c>
-      <c r="I9" s="4">
-        <v>9.9999999999999903E+29</v>
+      <c r="H9">
+        <v>123</v>
+      </c>
+      <c r="I9">
+        <v>0.28711709433505772</v>
       </c>
       <c r="J9" s="2">
         <v>44721</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>25</v>
       </c>
@@ -1336,17 +1375,17 @@
       <c r="G10" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="3">
-        <v>1.1123209999999999</v>
+      <c r="H10">
+        <v>330</v>
       </c>
       <c r="I10">
-        <v>23222222222222.301</v>
+        <v>0.18596390668583695</v>
       </c>
       <c r="J10" s="2">
         <v>44722</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>26</v>
       </c>
@@ -1368,29 +1407,31 @@
       <c r="G11" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="3">
-        <v>1.1123209999999999</v>
+      <c r="H11">
+        <v>2132</v>
       </c>
       <c r="I11">
-        <v>23222222222222.301</v>
+        <v>0.20507349240186645</v>
       </c>
       <c r="J11" s="2">
         <v>44723</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
+      <c r="B12" s="4">
+        <v>123</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1412,9 +1453,9 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1446,7 +1487,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1478,21 +1519,21 @@
         <v>44715</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>123</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
